--- a/biology/Microbiologie/Coelosomidiidae/Coelosomidiidae.xlsx
+++ b/biology/Microbiologie/Coelosomidiidae/Coelosomidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coelosomidiidae (ou Coelosomididae ou Coelosomidae) sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Trichostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Coelosomides, dérivé du grec ancien κοῖλος / koilos, « creux, cavité », et σωμα / soma, « corps », littéralement « corps creux », en référence à son « énorme vacuole interne »[1] qui donne du corps de l'organisme l'image d'une simple cavité.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Coelosomides, dérivé du grec ancien κοῖλος / koilos, « creux, cavité », et σωμα / soma, « corps », littéralement « corps creux », en référence à son « énorme vacuole interne » qui donne du corps de l'organisme l'image d'une simple cavité.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coelosomides a une taille de 200 μm et une forme obovoïde élancée. Sa pellicule[note 1] méridienne[note 2] est étroitement striée, à cils courts et denses ; les rayures sont délicatement croisées. Le vaste intérieur de la cellule ne laisse qu'une fine couche d'endoplasme mural vacuolé. Le macronoyau mince en forme de rein se trouve dans une zone épaissie de cet endoplaste. Dans le plasma on trouve deux organites : 
 un micronoyau, attaché à la parois, près du bord du corps ;
 une vacuole contractile, placée latéralement, dans le dernier quart inférieur du corps.
 Un tube étroit et cilié mène du pôle avant à l'énorme vacuole interne.
-Le tube pharyngé est épaissi intérieurement à l'extrémité proximale. Des cercles concentriques serrés de cils courent autour de l'extérieur de la bouche. L'organisme est un nageur agile[1].
+Le tube pharyngé est épaissi intérieurement à l'extrémité proximale. Des cercles concentriques serrés de cils courent autour de l'extérieur de la bouche. L'organisme est un nageur agile.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des ciliés marins[2]. Coelosomides a été découvert et étudié en 1930 par Kahl dans un aquarium marin de Trieste (Italie)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des ciliés marins. Coelosomides a été découvert et étudié en 1930 par Kahl dans un aquarium marin de Trieste (Italie).
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 juin 2023)[3] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 juin 2023) : 
 Coelosomidae
 Coelosomides Strand, 1928
 Espèce type : Coelosomides marina (Anigstein, 1912) Strand, 1928
@@ -621,12 +641,12 @@
 Orcavia Tucolesco, 1962 : Incertae sedis, selon Lynn 2008.
 Rigchostoma Vuxanovici, 1963 : Incertae sedis des Grossglockneriidae, selon Lynn 2008.
 Sulcigera Gajevskaia, 1928 : Incertae sedis des Histiobalantiidae (Lynn 2008) ; fam. des Sulcigeridae, selon Taxonomicon (15/06/2023).
-Selon The Taxonomicon  (17 juin 2023)[4] (Coelosomidiidae) :
+Selon The Taxonomicon  (17 juin 2023) (Coelosomidiidae) :
 Epimecophrya Kahl, 1933
 Paraspathidium Noland, 1937
 Coelosomides Strand, 1928
 Conchostoma Fauré-Fremiet, 1963
-Selon Lynn (2008) (Coelosomidiidae)[5].
+Selon Lynn (2008) (Coelosomidiidae).
 Epimecophrya Kahl, 1933 Incertae sedis
 Coelosomides Strand, 1928
 Conchostoma Fauré-Fremiet, 1963</t>
@@ -657,9 +677,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Coelosomidiidae Corliss, 1961[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Coelosomidiidae Corliss, 1961.
 </t>
         </is>
       </c>
